--- a/График_работы2.xlsx
+++ b/График_работы2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="9" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="9" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Март" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Апрель" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Май" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Июнь" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Июль" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Август" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сентябрь" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Октябрь" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ноябрь" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Декабрь" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Январь" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Февраль" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Март" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Апрель" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Май" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Июнь" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Июль" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Август" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Сентябрь" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Октябрь" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ноябрь" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Декабрь" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Январь" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,7 +28,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -133,8 +132,38 @@
       <color rgb="FF92D050"/>
       <sz val="14"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <strike val="0"/>
+      <outline val="0"/>
+      <shadow val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <strike val="0"/>
+      <outline val="0"/>
+      <shadow val="0"/>
+      <color rgb="00FF0000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <strike val="0"/>
+      <outline val="0"/>
+      <shadow val="0"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -217,6 +246,24 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -380,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -405,6 +452,7 @@
     <xf numFmtId="49" fontId="1" fillId="14" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,6 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -454,9 +505,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -476,6 +524,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -774,13 +831,13 @@
       <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -795,52 +852,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Март</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -997,9 +1054,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1094,13 +1151,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -1137,13 +1194,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -1178,13 +1235,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="6" t="n">
@@ -1241,13 +1298,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
@@ -1310,105 +1367,105 @@
       </c>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="19">
-      <c r="B10" s="31" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="33" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="36" t="inlineStr">
+      <c r="M10" s="38" t="inlineStr">
         <is>
           <t>Итоги (Март)</t>
         </is>
       </c>
-      <c r="N10" s="25" t="n"/>
-      <c r="O10" s="25" t="n"/>
-      <c r="P10" s="25" t="n"/>
-      <c r="Q10" s="25" t="n"/>
-      <c r="R10" s="25" t="n"/>
-      <c r="S10" s="25" t="n"/>
-      <c r="T10" s="25" t="n"/>
-      <c r="U10" s="25" t="n"/>
-      <c r="V10" s="25" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="19">
-      <c r="B11" s="27" t="inlineStr">
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+      <c r="S10" s="27" t="n"/>
+      <c r="T10" s="27" t="n"/>
+      <c r="U10" s="27" t="n"/>
+      <c r="V10" s="27" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="21">
+      <c r="B11" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="28" t="inlineStr">
+      <c r="M11" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="23" t="n"/>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="N11" s="25" t="n"/>
+      <c r="O11" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="23" t="n"/>
-      <c r="R11" s="21" t="inlineStr">
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+      <c r="R11" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="23" t="n"/>
-      <c r="U11" s="34" t="inlineStr">
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="25" t="n"/>
+      <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="23" t="n"/>
+      <c r="V11" s="25" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="29" t="n"/>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="24" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="26" t="n"/>
-      <c r="R12" s="24" t="n"/>
-      <c r="S12" s="25" t="n"/>
-      <c r="T12" s="26" t="n"/>
-      <c r="U12" s="24" t="n"/>
-      <c r="V12" s="26" t="n"/>
+      <c r="M12" s="31" t="n"/>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="26" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="26" t="n"/>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="28" t="n"/>
+      <c r="U12" s="26" t="n"/>
+      <c r="V12" s="28" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="19">
-      <c r="M13" s="24" t="n"/>
-      <c r="N13" s="26" t="n"/>
-      <c r="O13" s="32" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="M13" s="26" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-      <c r="R13" s="38" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="15" t="n"/>
-      <c r="T13" s="16" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -1420,24 +1477,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="19">
+    <row r="14" ht="18" customHeight="1" s="21">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="14">
+      <c r="O14" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="14">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="15">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n">
         <v>0</v>
       </c>
@@ -1447,75 +1504,75 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.45" customHeight="1" s="19">
+    <row r="15" ht="14.45" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="19">
+    <row r="16" ht="14.45" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="19">
+    <row r="17" ht="14.45" customHeight="1" s="21">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="14">
+      <c r="O17" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19">
+    <row r="18" ht="14.45" customHeight="1" s="21">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="19"/>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19">
+    <row r="19" ht="14.45" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -1564,15 +1621,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="19" min="5" max="5"/>
-    <col width="5.42578125" customWidth="1" style="19" min="6" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="33"/>
-    <col width="5.5703125" customWidth="1" style="19" min="34" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="4"/>
+    <col width="5.28515625" customWidth="1" style="21" min="5" max="5"/>
+    <col width="5.42578125" customWidth="1" style="21" min="6" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="33"/>
+    <col width="5.5703125" customWidth="1" style="21" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1587,52 +1644,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -1789,9 +1846,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1886,13 +1943,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="9" t="n">
@@ -1933,13 +1990,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="9" t="n">
         <v>4</v>
@@ -1980,13 +2037,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -2055,13 +2112,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -2094,13 +2151,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="9" t="n">
         <v>3</v>
@@ -2153,110 +2210,110 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="19">
-      <c r="B11" s="31" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="21">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="40" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Декабрь)</t>
         </is>
       </c>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="15" t="n"/>
-      <c r="R11" s="15" t="n"/>
-      <c r="S11" s="15" t="n"/>
-      <c r="T11" s="15" t="n"/>
-      <c r="U11" s="15" t="n"/>
-      <c r="V11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="B12" s="27" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="28" t="inlineStr">
+      <c r="M12" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="23" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
+      <c r="N12" s="25" t="n"/>
+      <c r="O12" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="21" t="inlineStr">
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="42" t="inlineStr">
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="26" t="n"/>
-      <c r="U13" s="24" t="n"/>
-      <c r="V13" s="26" t="n"/>
+      <c r="M13" s="31" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="26" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="26" t="n"/>
+      <c r="S13" s="27" t="n"/>
+      <c r="T13" s="28" t="n"/>
+      <c r="U13" s="26" t="n"/>
+      <c r="V13" s="28" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="19">
-      <c r="B14" s="43" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="21">
+      <c r="B14" s="44" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="24" t="n"/>
-      <c r="N14" s="26" t="n"/>
-      <c r="O14" s="32" t="inlineStr">
+      <c r="M14" s="26" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="38" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="13" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -2268,24 +2325,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
+    <row r="15" ht="18.75" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7">
         <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
@@ -2295,24 +2352,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="19">
+    <row r="16" ht="18.75" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
@@ -2322,24 +2379,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="19">
-      <c r="M17" s="41">
+    <row r="17" ht="18.75" customHeight="1" s="21">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="15">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="7">
         <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
@@ -2349,24 +2406,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="19">
-      <c r="M18" s="41">
+    <row r="18" ht="18" customHeight="1" s="21">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="14">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="15">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="15">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="7">
         <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
@@ -2376,24 +2433,24 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="19">
-      <c r="M19" s="41">
+    <row r="19" ht="18" customHeight="1" s="21">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="14">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="15">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="15">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
@@ -2403,12 +2460,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
-    <row r="24" ht="14.45" customHeight="1" s="19"/>
-    <row r="25" ht="14.45" customHeight="1" s="19"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="23" ht="14.45" customHeight="1" s="21"/>
+    <row r="24" ht="14.45" customHeight="1" s="21"/>
+    <row r="25" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="R15:T15"/>
@@ -2456,21 +2513,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M11" sqref="M11:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="19" min="5" max="5"/>
-    <col width="5.42578125" customWidth="1" style="19" min="6" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="33"/>
-    <col width="5.5703125" customWidth="1" style="19" min="34" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="4.7109375" customWidth="1" style="21" min="2" max="2"/>
+    <col width="4.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="4.7109375" customWidth="1" style="21" min="4" max="4"/>
+    <col width="4.7109375" customWidth="1" style="21" min="5" max="5"/>
+    <col width="4.7109375" customWidth="1" style="21" min="6" max="7"/>
+    <col width="4.7109375" customWidth="1" style="21" min="7" max="7"/>
+    <col width="4.7109375" customWidth="1" style="21" min="8" max="33"/>
+    <col width="4.7109375" customWidth="1" style="21" min="9" max="9"/>
+    <col width="4.7109375" customWidth="1" style="21" min="10" max="10"/>
+    <col width="4.7109375" customWidth="1" style="21" min="11" max="11"/>
+    <col width="4.7109375" customWidth="1" style="21" min="12" max="12"/>
+    <col width="4.7109375" customWidth="1" style="21" min="13" max="13"/>
+    <col width="4.7109375" customWidth="1" style="21" min="14" max="14"/>
+    <col width="4.7109375" customWidth="1" style="21" min="15" max="15"/>
+    <col width="4.7109375" customWidth="1" style="21" min="16" max="16"/>
+    <col width="4.7109375" customWidth="1" style="21" min="17" max="17"/>
+    <col width="4.7109375" customWidth="1" style="21" min="18" max="18"/>
+    <col width="4.7109375" customWidth="1" style="21" min="19" max="19"/>
+    <col width="4.7109375" customWidth="1" style="21" min="20" max="20"/>
+    <col width="4.7109375" customWidth="1" style="21" min="21" max="21"/>
+    <col width="4.7109375" customWidth="1" style="21" min="22" max="22"/>
+    <col width="4.7109375" customWidth="1" style="21" min="23" max="23"/>
+    <col width="4.7109375" customWidth="1" style="21" min="24" max="24"/>
+    <col width="4.7109375" customWidth="1" style="21" min="25" max="25"/>
+    <col width="4.7109375" customWidth="1" style="21" min="26" max="26"/>
+    <col width="4.7109375" customWidth="1" style="21" min="27" max="27"/>
+    <col width="4.7109375" customWidth="1" style="21" min="28" max="28"/>
+    <col width="4.7109375" customWidth="1" style="21" min="29" max="29"/>
+    <col width="4.7109375" customWidth="1" style="21" min="30" max="30"/>
+    <col width="4.7109375" customWidth="1" style="21" min="31" max="31"/>
+    <col width="4.7109375" customWidth="1" style="21" min="32" max="32"/>
+    <col width="4.7109375" customWidth="1" style="21" min="33" max="33"/>
+    <col width="4.7109375" customWidth="1" style="21" min="34" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2485,52 +2570,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
-        <is>
-          <t>Декабрь</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>Январь</t>
+        </is>
+      </c>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -2687,9 +2772,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -2784,60 +2869,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="9" t="n">
+      <c r="C5" s="17" t="n"/>
+      <c r="D5" s="45" t="n"/>
+      <c r="E5" s="45" t="n"/>
+      <c r="F5" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="n"/>
-      <c r="T5" s="3" t="n"/>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="3" t="n"/>
-      <c r="Z5" s="9" t="n">
+      <c r="G5" s="45" t="n"/>
+      <c r="H5" s="45" t="n"/>
+      <c r="I5" s="45" t="n"/>
+      <c r="J5" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="45" t="n"/>
+      <c r="L5" s="45" t="n"/>
+      <c r="M5" s="45" t="n"/>
+      <c r="N5" s="45" t="n"/>
+      <c r="O5" s="45" t="n"/>
+      <c r="P5" s="45" t="n"/>
+      <c r="Q5" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="45" t="n"/>
+      <c r="S5" s="45" t="n"/>
+      <c r="T5" s="45" t="n"/>
+      <c r="U5" s="45" t="n"/>
+      <c r="V5" s="45" t="n"/>
+      <c r="W5" s="45" t="n"/>
+      <c r="X5" s="45" t="n"/>
+      <c r="Y5" s="45" t="n"/>
+      <c r="Z5" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="AA5" s="3" t="n"/>
-      <c r="AB5" s="3" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-      <c r="AG5" s="3" t="n"/>
-      <c r="AH5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+      <c r="AA5" s="45" t="n"/>
+      <c r="AB5" s="45" t="n"/>
+      <c r="AC5" s="45" t="n"/>
+      <c r="AD5" s="45" t="n"/>
+      <c r="AE5" s="45" t="n"/>
+      <c r="AF5" s="45" t="n"/>
+      <c r="AG5" s="45" t="n"/>
+      <c r="AH5" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="9" t="n">
         <v>4</v>
@@ -2878,13 +2965,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -2953,13 +3040,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -2992,13 +3079,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="9" t="n">
         <v>3</v>
@@ -3051,1125 +3138,436 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="10"/>
-    <row r="11" ht="18.75" customHeight="1" s="19">
-      <c r="B11" s="31" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="18" t="inlineStr">
+        <is>
+          <t>Катя</t>
+        </is>
+      </c>
+      <c r="C10" s="17" t="n"/>
+      <c r="D10" s="45" t="n"/>
+      <c r="E10" s="45" t="n"/>
+      <c r="F10" s="45" t="n"/>
+      <c r="G10" s="45" t="n"/>
+      <c r="H10" s="45" t="n"/>
+      <c r="I10" s="45" t="n"/>
+      <c r="J10" s="45" t="n"/>
+      <c r="K10" s="45" t="n"/>
+      <c r="L10" s="45" t="n"/>
+      <c r="M10" s="45" t="n"/>
+      <c r="N10" s="45" t="n"/>
+      <c r="O10" s="45" t="n"/>
+      <c r="P10" s="45" t="n"/>
+      <c r="Q10" s="45" t="n"/>
+      <c r="R10" s="45" t="n"/>
+      <c r="S10" s="45" t="n"/>
+      <c r="T10" s="45" t="n"/>
+      <c r="U10" s="45" t="n"/>
+      <c r="V10" s="45" t="n"/>
+      <c r="W10" s="45" t="n"/>
+      <c r="X10" s="45" t="n"/>
+      <c r="Y10" s="45" t="n"/>
+      <c r="Z10" s="45" t="n"/>
+      <c r="AA10" s="45" t="n"/>
+      <c r="AB10" s="45" t="n"/>
+      <c r="AC10" s="45" t="n"/>
+      <c r="AD10" s="45" t="n"/>
+      <c r="AE10" s="45" t="n"/>
+      <c r="AF10" s="45" t="n"/>
+      <c r="AG10" s="45" t="n"/>
+      <c r="AH10" s="45" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="21">
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>Баклажан</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="45" t="n"/>
+      <c r="K11" s="45" t="n"/>
+      <c r="L11" s="45" t="n"/>
+      <c r="M11" s="45" t="n"/>
+      <c r="N11" s="45" t="n"/>
+      <c r="O11" s="45" t="n"/>
+      <c r="P11" s="45" t="n"/>
+      <c r="Q11" s="45" t="n"/>
+      <c r="R11" s="45" t="n"/>
+      <c r="S11" s="45" t="n"/>
+      <c r="T11" s="45" t="n"/>
+      <c r="U11" s="45" t="n"/>
+      <c r="V11" s="45" t="n"/>
+      <c r="W11" s="45" t="n"/>
+      <c r="X11" s="45" t="n"/>
+      <c r="Y11" s="45" t="n"/>
+      <c r="Z11" s="45" t="n"/>
+      <c r="AA11" s="45" t="n"/>
+      <c r="AB11" s="45" t="n"/>
+      <c r="AC11" s="45" t="n"/>
+      <c r="AD11" s="45" t="n"/>
+      <c r="AE11" s="45" t="n"/>
+      <c r="AF11" s="45" t="n"/>
+      <c r="AG11" s="45" t="n"/>
+      <c r="AH11" s="45" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="21"/>
+    <row r="13">
+      <c r="B13" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E13" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="40" t="inlineStr">
-        <is>
-          <t>Итоги (Декабрь)</t>
-        </is>
-      </c>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="15" t="n"/>
-      <c r="R11" s="15" t="n"/>
-      <c r="S11" s="15" t="n"/>
-      <c r="T11" s="15" t="n"/>
-      <c r="U11" s="15" t="n"/>
-      <c r="V11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="B12" s="27" t="inlineStr">
+      <c r="M13" s="41" t="inlineStr">
+        <is>
+          <t>Итоги (Январь)</t>
+        </is>
+      </c>
+      <c r="N13" s="16" t="n"/>
+      <c r="O13" s="16" t="n"/>
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="16" t="n"/>
+      <c r="R13" s="16" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="16" t="n"/>
+      <c r="U13" s="16" t="n"/>
+      <c r="V13" s="17" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="21">
+      <c r="B14" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E14" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="28" t="inlineStr">
+      <c r="M14" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="23" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
+      <c r="N14" s="25" t="n"/>
+      <c r="O14" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="21" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="42" t="inlineStr">
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
+      <c r="U14" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="23" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="18" t="inlineStr">
+      <c r="V14" s="25" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="21">
+      <c r="B15" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="26" t="n"/>
-      <c r="U13" s="24" t="n"/>
-      <c r="V13" s="26" t="n"/>
-      <c r="AA13" s="10" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="19">
-      <c r="B14" s="43" t="inlineStr">
+      <c r="M15" s="31" t="n"/>
+      <c r="N15" s="32" t="n"/>
+      <c r="O15" s="26" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="28" t="n"/>
+      <c r="R15" s="26" t="n"/>
+      <c r="S15" s="27" t="n"/>
+      <c r="T15" s="28" t="n"/>
+      <c r="U15" s="26" t="n"/>
+      <c r="V15" s="28" t="n"/>
+      <c r="AA15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="21">
+      <c r="B16" s="44" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="24" t="n"/>
-      <c r="N14" s="26" t="n"/>
-      <c r="O14" s="32" t="inlineStr">
+      <c r="M16" s="26" t="n"/>
+      <c r="N16" s="28" t="n"/>
+      <c r="O16" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="38" t="inlineStr">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
-      <c r="U14" s="13" t="inlineStr">
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
+      <c r="U16" s="13" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="V14" s="13" t="inlineStr">
+      <c r="V16" s="13" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
-      <c r="M15" s="4">
+    <row r="17" ht="18.75" customHeight="1" s="21">
+      <c r="M17" s="4">
         <f>B5</f>
         <v/>
       </c>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="N17" s="4" t="n"/>
+      <c r="O17" s="15">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
-      <c r="U15" s="7">
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
+      <c r="U17" s="7">
         <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V15" s="7">
+      <c r="V17" s="7">
         <f>SUMIF(S5:AH5,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="19">
-      <c r="M16" s="4">
+    <row r="18" ht="18" customHeight="1" s="21">
+      <c r="M18" s="4">
         <f>B6</f>
         <v/>
       </c>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="15">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="15">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
-      <c r="U16" s="7">
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
+      <c r="U18" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V16" s="7">
+      <c r="V18" s="7">
         <f>SUMIF(S6:AH6,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="19">
-      <c r="M17" s="41">
+    <row r="19" ht="18" customHeight="1" s="21">
+      <c r="M19" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="15">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="15">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
-      <c r="U17" s="7">
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
+      <c r="U19" s="7">
         <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V17" s="7">
+      <c r="V19" s="7">
         <f>SUMIF(S7:AH7,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="19">
-      <c r="M18" s="41">
+    <row r="20" ht="14.45" customHeight="1" s="21">
+      <c r="M20" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="14">
+      <c r="N20" s="17" t="n"/>
+      <c r="O20" s="15">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
+      <c r="P20" s="16" t="n"/>
+      <c r="Q20" s="17" t="n"/>
+      <c r="R20" s="15">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
-      <c r="U18" s="7">
+      <c r="S20" s="16" t="n"/>
+      <c r="T20" s="17" t="n"/>
+      <c r="U20" s="7">
         <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V18" s="7">
+      <c r="V20" s="7">
         <f>SUMIF(S8:AH8,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="19">
-      <c r="M19" s="41">
+    <row r="21" ht="14.45" customHeight="1" s="21">
+      <c r="M21" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="14">
+      <c r="N21" s="17" t="n"/>
+      <c r="O21" s="15">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
+      <c r="P21" s="16" t="n"/>
+      <c r="Q21" s="17" t="n"/>
+      <c r="R21" s="15">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
-      <c r="U19" s="7">
+      <c r="S21" s="16" t="n"/>
+      <c r="T21" s="17" t="n"/>
+      <c r="U21" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
       </c>
-      <c r="V19" s="7">
+      <c r="V21" s="7">
         <f>SUMIF(S9:AH9,"&gt;1")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
-    <row r="24" ht="14.45" customHeight="1" s="19"/>
-    <row r="25" ht="14.45" customHeight="1" s="19"/>
+    <row r="22" ht="14.45" customHeight="1" s="21">
+      <c r="M22" s="42" t="inlineStr">
+        <is>
+          <t>Катя</t>
+        </is>
+      </c>
+      <c r="N22" s="17" t="n"/>
+      <c r="O22" s="15">
+        <f>SUMIF(D10:R10,"=1")</f>
+        <v/>
+      </c>
+      <c r="P22" s="16" t="n"/>
+      <c r="Q22" s="17" t="n"/>
+      <c r="R22" s="15">
+        <f>SUMIF(S10:AH10,"=1")</f>
+        <v/>
+      </c>
+      <c r="S22" s="16" t="n"/>
+      <c r="T22" s="17" t="n"/>
+      <c r="U22" s="7">
+        <f>SUMIF(D10:R10,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V22" s="7">
+        <f>SUMIF(S10:AH10,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="14.45" customHeight="1" s="21">
+      <c r="M23" s="42" t="inlineStr">
+        <is>
+          <t>Баклажан</t>
+        </is>
+      </c>
+      <c r="N23" s="17" t="n"/>
+      <c r="O23" s="15">
+        <f>SUMIF(D11:R11,"=1")</f>
+        <v/>
+      </c>
+      <c r="P23" s="16" t="n"/>
+      <c r="Q23" s="17" t="n"/>
+      <c r="R23" s="15">
+        <f>SUMIF(S11:AH11,"=1")</f>
+        <v/>
+      </c>
+      <c r="S23" s="16" t="n"/>
+      <c r="T23" s="17" t="n"/>
+      <c r="U23" s="7">
+        <f>SUMIF(D11:R11,"&gt;1")</f>
+        <v/>
+      </c>
+      <c r="V23" s="7">
+        <f>SUMIF(S11:AH11,"&gt;1")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="14.45" customHeight="1" s="21"/>
+    <row r="25" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="R15:T15"/>
+  <mergeCells count="41">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="O14:Q15"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U12:V13"/>
     <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R20:T20"/>
     <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="O21:Q21"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="R22:T22"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="E12:K20"/>
+    <mergeCell ref="R23:T23"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M11:V11"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O12:Q13"/>
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="E14:K22"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M14:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O20:Q20"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AH20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="4"/>
-    <col width="5.28515625" customWidth="1" style="19" min="5" max="5"/>
-    <col width="5.42578125" customWidth="1" style="19" min="6" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="33"/>
-    <col width="5.5703125" customWidth="1" style="19" min="34" max="34"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
-        <is>
-          <t>Декабрь</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
-        <is>
-          <t>Сотрудник</t>
-        </is>
-      </c>
-      <c r="C3" s="30" t="n"/>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>сб</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>вс</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>пн</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>вт</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>ср</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>чт</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>пт</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>сб</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>вс</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>пн</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>вт</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>ср</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>чт</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>пт</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>сб</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>вс</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>пн</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
-        <is>
-          <t>вт</t>
-        </is>
-      </c>
-      <c r="V3" s="1" t="inlineStr">
-        <is>
-          <t>ср</t>
-        </is>
-      </c>
-      <c r="W3" s="1" t="inlineStr">
-        <is>
-          <t>чт</t>
-        </is>
-      </c>
-      <c r="X3" s="1" t="inlineStr">
-        <is>
-          <t>пт</t>
-        </is>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>сб</t>
-        </is>
-      </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>вс</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>пн</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>вт</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>ср</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>чт</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="inlineStr">
-        <is>
-          <t>пт</t>
-        </is>
-      </c>
-      <c r="AF3" s="1" t="inlineStr">
-        <is>
-          <t>сб</t>
-        </is>
-      </c>
-      <c r="AG3" s="1" t="inlineStr">
-        <is>
-          <t>вс</t>
-        </is>
-      </c>
-      <c r="AH3" s="1" t="inlineStr">
-        <is>
-          <t>пн</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
-        <is>
-          <t>Кирилл</t>
-        </is>
-      </c>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="44" t="n"/>
-      <c r="E5" s="44" t="n"/>
-      <c r="F5" s="44" t="n"/>
-      <c r="G5" s="44" t="n"/>
-      <c r="H5" s="44" t="n"/>
-      <c r="I5" s="44" t="n"/>
-      <c r="J5" s="44" t="n"/>
-      <c r="K5" s="44" t="n"/>
-      <c r="L5" s="44" t="n"/>
-      <c r="M5" s="44" t="n"/>
-      <c r="N5" s="44" t="n"/>
-      <c r="O5" s="44" t="n"/>
-      <c r="P5" s="44" t="n"/>
-      <c r="Q5" s="44" t="n"/>
-      <c r="R5" s="44" t="n"/>
-      <c r="S5" s="44" t="n"/>
-      <c r="T5" s="44" t="n"/>
-      <c r="U5" s="44" t="n"/>
-      <c r="V5" s="44" t="n"/>
-      <c r="W5" s="44" t="n"/>
-      <c r="X5" s="44" t="n"/>
-      <c r="Y5" s="44" t="n"/>
-      <c r="Z5" s="44" t="n"/>
-      <c r="AA5" s="44" t="n"/>
-      <c r="AB5" s="44" t="n"/>
-      <c r="AC5" s="44" t="n"/>
-      <c r="AD5" s="44" t="n"/>
-      <c r="AE5" s="44" t="n"/>
-      <c r="AF5" s="44" t="n"/>
-      <c r="AG5" s="44" t="n"/>
-      <c r="AH5" s="44" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
-        <is>
-          <t>Лариса</t>
-        </is>
-      </c>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="44" t="n"/>
-      <c r="E6" s="44" t="n"/>
-      <c r="F6" s="44" t="n"/>
-      <c r="G6" s="44" t="n"/>
-      <c r="H6" s="44" t="n"/>
-      <c r="I6" s="44" t="n"/>
-      <c r="J6" s="44" t="n"/>
-      <c r="K6" s="44" t="n"/>
-      <c r="L6" s="44" t="n"/>
-      <c r="M6" s="44" t="n"/>
-      <c r="N6" s="44" t="n"/>
-      <c r="O6" s="44" t="n"/>
-      <c r="P6" s="44" t="n"/>
-      <c r="Q6" s="44" t="n"/>
-      <c r="R6" s="44" t="n"/>
-      <c r="S6" s="44" t="n"/>
-      <c r="T6" s="44" t="n"/>
-      <c r="U6" s="44" t="n"/>
-      <c r="V6" s="44" t="n"/>
-      <c r="W6" s="44" t="n"/>
-      <c r="X6" s="44" t="n"/>
-      <c r="Y6" s="44" t="n"/>
-      <c r="Z6" s="44" t="n"/>
-      <c r="AA6" s="44" t="n"/>
-      <c r="AB6" s="44" t="n"/>
-      <c r="AC6" s="44" t="n"/>
-      <c r="AD6" s="44" t="n"/>
-      <c r="AE6" s="44" t="n"/>
-      <c r="AF6" s="44" t="n"/>
-      <c r="AG6" s="44" t="n"/>
-      <c r="AH6" s="44" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
-        <is>
-          <t>Алена</t>
-        </is>
-      </c>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="44" t="n"/>
-      <c r="E7" s="44" t="n"/>
-      <c r="F7" s="44" t="n"/>
-      <c r="G7" s="44" t="n"/>
-      <c r="H7" s="44" t="n"/>
-      <c r="I7" s="44" t="n"/>
-      <c r="J7" s="44" t="n"/>
-      <c r="K7" s="44" t="n"/>
-      <c r="L7" s="44" t="n"/>
-      <c r="M7" s="44" t="n"/>
-      <c r="N7" s="44" t="n"/>
-      <c r="O7" s="44" t="n"/>
-      <c r="P7" s="44" t="n"/>
-      <c r="Q7" s="44" t="n"/>
-      <c r="R7" s="44" t="n"/>
-      <c r="S7" s="44" t="n"/>
-      <c r="T7" s="44" t="n"/>
-      <c r="U7" s="44" t="n"/>
-      <c r="V7" s="44" t="n"/>
-      <c r="W7" s="44" t="n"/>
-      <c r="X7" s="44" t="n"/>
-      <c r="Y7" s="44" t="n"/>
-      <c r="Z7" s="44" t="n"/>
-      <c r="AA7" s="44" t="n"/>
-      <c r="AB7" s="44" t="n"/>
-      <c r="AC7" s="44" t="n"/>
-      <c r="AD7" s="44" t="n"/>
-      <c r="AE7" s="44" t="n"/>
-      <c r="AF7" s="44" t="n"/>
-      <c r="AG7" s="44" t="n"/>
-      <c r="AH7" s="44" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>Нурик</t>
-        </is>
-      </c>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="44" t="n"/>
-      <c r="E8" s="44" t="n"/>
-      <c r="F8" s="44" t="n"/>
-      <c r="G8" s="44" t="n"/>
-      <c r="H8" s="44" t="n"/>
-      <c r="I8" s="44" t="n"/>
-      <c r="J8" s="44" t="n"/>
-      <c r="K8" s="44" t="n"/>
-      <c r="L8" s="44" t="n"/>
-      <c r="M8" s="44" t="n"/>
-      <c r="N8" s="44" t="n"/>
-      <c r="O8" s="44" t="n"/>
-      <c r="P8" s="44" t="n"/>
-      <c r="Q8" s="44" t="n"/>
-      <c r="R8" s="44" t="n"/>
-      <c r="S8" s="44" t="n"/>
-      <c r="T8" s="44" t="n"/>
-      <c r="U8" s="44" t="n"/>
-      <c r="V8" s="44" t="n"/>
-      <c r="W8" s="44" t="n"/>
-      <c r="X8" s="44" t="n"/>
-      <c r="Y8" s="44" t="n"/>
-      <c r="Z8" s="44" t="n"/>
-      <c r="AA8" s="44" t="n"/>
-      <c r="AB8" s="44" t="n"/>
-      <c r="AC8" s="44" t="n"/>
-      <c r="AD8" s="44" t="n"/>
-      <c r="AE8" s="44" t="n"/>
-      <c r="AF8" s="44" t="n"/>
-      <c r="AG8" s="44" t="n"/>
-      <c r="AH8" s="44" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
-        <is>
-          <t>Ильдар</t>
-        </is>
-      </c>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="44" t="n"/>
-      <c r="E9" s="44" t="n"/>
-      <c r="F9" s="44" t="n"/>
-      <c r="G9" s="44" t="n"/>
-      <c r="H9" s="44" t="n"/>
-      <c r="I9" s="44" t="n"/>
-      <c r="J9" s="44" t="n"/>
-      <c r="K9" s="44" t="n"/>
-      <c r="L9" s="44" t="n"/>
-      <c r="M9" s="44" t="n"/>
-      <c r="N9" s="44" t="n"/>
-      <c r="O9" s="44" t="n"/>
-      <c r="P9" s="44" t="n"/>
-      <c r="Q9" s="44" t="n"/>
-      <c r="R9" s="44" t="n"/>
-      <c r="S9" s="44" t="n"/>
-      <c r="T9" s="44" t="n"/>
-      <c r="U9" s="44" t="n"/>
-      <c r="V9" s="44" t="n"/>
-      <c r="W9" s="44" t="n"/>
-      <c r="X9" s="44" t="n"/>
-      <c r="Y9" s="44" t="n"/>
-      <c r="Z9" s="44" t="n"/>
-      <c r="AA9" s="44" t="n"/>
-      <c r="AB9" s="44" t="n"/>
-      <c r="AC9" s="44" t="n"/>
-      <c r="AD9" s="44" t="n"/>
-      <c r="AE9" s="44" t="n"/>
-      <c r="AF9" s="44" t="n"/>
-      <c r="AG9" s="44" t="n"/>
-      <c r="AH9" s="44" t="n"/>
-    </row>
-    <row r="10"/>
-    <row r="11" ht="18.75" customHeight="1" s="19">
-      <c r="B11" s="31" t="inlineStr">
-        <is>
-          <t>работа//смена</t>
-        </is>
-      </c>
-      <c r="E11" s="33" t="inlineStr">
-        <is>
-          <t>Справочник</t>
-        </is>
-      </c>
-      <c r="M11" s="40" t="inlineStr">
-        <is>
-          <t>Итоги (Декабрь)</t>
-        </is>
-      </c>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="15" t="n"/>
-      <c r="R11" s="15" t="n"/>
-      <c r="S11" s="15" t="n"/>
-      <c r="T11" s="15" t="n"/>
-      <c r="U11" s="15" t="n"/>
-      <c r="V11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="B12" s="27" t="inlineStr">
-        <is>
-          <t>выходной</t>
-        </is>
-      </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
-        </is>
-      </c>
-      <c r="M12" s="28" t="inlineStr">
-        <is>
-          <t>Сотрудник</t>
-        </is>
-      </c>
-      <c r="N12" s="23" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
-        <is>
-          <t>1/2 месяца</t>
-        </is>
-      </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="21" t="inlineStr">
-        <is>
-          <t>2/2 месяца</t>
-        </is>
-      </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="42" t="inlineStr">
-        <is>
-          <t>Подработки/ч</t>
-        </is>
-      </c>
-      <c r="V12" s="23" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>Инвентаризация</t>
-        </is>
-      </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="26" t="n"/>
-      <c r="U13" s="24" t="n"/>
-      <c r="V13" s="26" t="n"/>
-      <c r="AA13" s="10" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="19">
-      <c r="B14" s="43" t="inlineStr">
-        <is>
-          <t>Подработка/ч</t>
-        </is>
-      </c>
-      <c r="M14" s="24" t="n"/>
-      <c r="N14" s="26" t="n"/>
-      <c r="O14" s="32" t="inlineStr">
-        <is>
-          <t>смены</t>
-        </is>
-      </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="38" t="inlineStr">
-        <is>
-          <t>смены</t>
-        </is>
-      </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
-      <c r="U14" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V14" s="13" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
-      <c r="M15" s="4">
-        <f>B5</f>
-        <v/>
-      </c>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
-        <f>SUMIF(D5:R5,"=1")</f>
-        <v/>
-      </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
-        <f>SUMIF(S5:AH5,"=1")</f>
-        <v/>
-      </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
-      <c r="U15" s="7">
-        <f>SUMIF(D5:R5,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V15" s="7">
-        <f>SUMIF(S5:AH5,"&gt;1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="19">
-      <c r="M16" s="4">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
-        <f>SUMIF(D6:R6,"=1")</f>
-        <v/>
-      </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
-        <f>SUMIF(S6:AH6,"=1")</f>
-        <v/>
-      </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
-      <c r="U16" s="7">
-        <f>SUMIF(D6:R6,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V16" s="7">
-        <f>SUMIF(S6:AH6,"&gt;1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="19">
-      <c r="M17" s="41">
-        <f>B7</f>
-        <v/>
-      </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
-        <f>SUMIF(D7:R7,"=1")</f>
-        <v/>
-      </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
-        <f>SUMIF(S7:AH7,"=1")</f>
-        <v/>
-      </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
-      <c r="U17" s="7">
-        <f>SUMIF(D7:R7,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V17" s="7">
-        <f>SUMIF(S7:AH7,"&gt;1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" s="19">
-      <c r="M18" s="41">
-        <f>B8</f>
-        <v/>
-      </c>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="14">
-        <f>SUMIF(D8:R8,"=1")</f>
-        <v/>
-      </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
-        <f>SUMIF(S8:AH8,"=1")</f>
-        <v/>
-      </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
-      <c r="U18" s="7">
-        <f>SUMIF(D8:R8,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V18" s="7">
-        <f>SUMIF(S8:AH8,"&gt;1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" s="19">
-      <c r="M19" s="41">
-        <f>B9</f>
-        <v/>
-      </c>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="14">
-        <f>SUMIF(D9:R9,"=1")</f>
-        <v/>
-      </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
-        <f>SUMIF(S9:AH9,"=1")</f>
-        <v/>
-      </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
-      <c r="U19" s="7">
-        <f>SUMIF(D9:R9,"&gt;1")</f>
-        <v/>
-      </c>
-      <c r="V19" s="7">
-        <f>SUMIF(S9:AH9,"&gt;1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
-    <row r="24" ht="14.45" customHeight="1" s="19"/>
-    <row r="25" ht="14.45" customHeight="1" s="19"/>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="E12:K20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M12:N14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -4188,13 +3586,13 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4209,51 +3607,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="39" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="40" t="inlineStr">
         <is>
           <t>Апрель</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -4405,9 +3803,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -4499,13 +3897,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -4537,13 +3935,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -4579,13 +3977,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Маша</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -4617,13 +4015,13 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -4685,13 +4083,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Рома</t>
         </is>
       </c>
-      <c r="C9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
@@ -4725,13 +4123,13 @@
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="19">
-      <c r="B10" s="17" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C10" s="16" t="n"/>
+      <c r="C10" s="17" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -4787,105 +4185,105 @@
       </c>
       <c r="AG10" s="3" t="n"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="19">
-      <c r="B12" s="31" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1" s="21">
+      <c r="B12" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E12" s="33" t="inlineStr">
+      <c r="E12" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M12" s="36" t="inlineStr">
+      <c r="M12" s="38" t="inlineStr">
         <is>
           <t>Итоги (Апрель)</t>
         </is>
       </c>
-      <c r="N12" s="25" t="n"/>
-      <c r="O12" s="25" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="25" t="n"/>
-      <c r="R12" s="25" t="n"/>
-      <c r="S12" s="25" t="n"/>
-      <c r="T12" s="25" t="n"/>
-      <c r="U12" s="25" t="n"/>
-      <c r="V12" s="25" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="19">
-      <c r="B13" s="27" t="inlineStr">
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="27" t="n"/>
+      <c r="U12" s="27" t="n"/>
+      <c r="V12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="B13" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E13" s="20" t="inlineStr">
+      <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M13" s="28" t="inlineStr">
+      <c r="M13" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N13" s="23" t="n"/>
-      <c r="O13" s="21" t="inlineStr">
+      <c r="N13" s="25" t="n"/>
+      <c r="O13" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="21" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
-      <c r="U13" s="34" t="inlineStr">
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
+      <c r="U13" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V13" s="23" t="n"/>
+      <c r="V13" s="25" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="18" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M14" s="29" t="n"/>
-      <c r="N14" s="30" t="n"/>
-      <c r="O14" s="24" t="n"/>
-      <c r="P14" s="25" t="n"/>
-      <c r="Q14" s="26" t="n"/>
-      <c r="R14" s="24" t="n"/>
-      <c r="S14" s="25" t="n"/>
-      <c r="T14" s="26" t="n"/>
-      <c r="U14" s="24" t="n"/>
-      <c r="V14" s="26" t="n"/>
+      <c r="M14" s="31" t="n"/>
+      <c r="N14" s="32" t="n"/>
+      <c r="O14" s="26" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="28" t="n"/>
+      <c r="R14" s="26" t="n"/>
+      <c r="S14" s="27" t="n"/>
+      <c r="T14" s="28" t="n"/>
+      <c r="U14" s="26" t="n"/>
+      <c r="V14" s="28" t="n"/>
       <c r="AA14" s="10" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="19">
-      <c r="M15" s="24" t="n"/>
-      <c r="N15" s="26" t="n"/>
-      <c r="O15" s="32" t="inlineStr">
+    <row r="15" ht="18" customHeight="1" s="21">
+      <c r="M15" s="26" t="n"/>
+      <c r="N15" s="28" t="n"/>
+      <c r="O15" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="38" t="inlineStr">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -4897,145 +4295,145 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="19">
+    <row r="16" ht="14.45" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="7" t="n"/>
       <c r="V16" s="8" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="19">
+    <row r="17" ht="14.45" customHeight="1" s="21">
       <c r="M17" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="14">
+      <c r="O17" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="12" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19">
+    <row r="18" ht="14.45" customHeight="1" s="21">
       <c r="M18" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N18" s="4" t="n"/>
-      <c r="O18" s="14">
+      <c r="O18" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="15">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="19">
+    <row r="19" ht="14.45" customHeight="1" s="21">
       <c r="M19" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N19" s="4" t="n"/>
-      <c r="O19" s="14">
+      <c r="O19" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="15">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19">
+    <row r="20" ht="14.45" customHeight="1" s="21">
       <c r="M20" s="4">
         <f>B9</f>
         <v/>
       </c>
       <c r="N20" s="4" t="n"/>
-      <c r="O20" s="14">
+      <c r="O20" s="15">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P20" s="15" t="n"/>
-      <c r="Q20" s="16" t="n"/>
-      <c r="R20" s="14">
+      <c r="P20" s="16" t="n"/>
+      <c r="Q20" s="17" t="n"/>
+      <c r="R20" s="15">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S20" s="15" t="n"/>
-      <c r="T20" s="16" t="n"/>
+      <c r="S20" s="16" t="n"/>
+      <c r="T20" s="17" t="n"/>
       <c r="U20" s="5" t="n"/>
       <c r="V20" s="5" t="n"/>
     </row>
-    <row r="21" ht="14.45" customHeight="1" s="19">
+    <row r="21" ht="14.45" customHeight="1" s="21">
       <c r="M21" s="4">
         <f>B10</f>
         <v/>
       </c>
       <c r="N21" s="4" t="n"/>
-      <c r="O21" s="14">
+      <c r="O21" s="15">
         <f>SUM(D10:R10)</f>
         <v/>
       </c>
-      <c r="P21" s="15" t="n"/>
-      <c r="Q21" s="16" t="n"/>
-      <c r="R21" s="14">
+      <c r="P21" s="16" t="n"/>
+      <c r="Q21" s="17" t="n"/>
+      <c r="R21" s="15">
         <f>SUM(S10:AG10)</f>
         <v/>
       </c>
-      <c r="S21" s="15" t="n"/>
-      <c r="T21" s="16" t="n"/>
+      <c r="S21" s="16" t="n"/>
+      <c r="T21" s="17" t="n"/>
       <c r="U21" s="5" t="n"/>
       <c r="V21" s="5" t="n"/>
     </row>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
     <row r="23">
       <c r="R23" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R15:T15"/>
     <mergeCell ref="E13:K21"/>
-    <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="O13:Q14"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R17:T17"/>
@@ -5079,13 +4477,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5100,52 +4498,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Май</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
@@ -5302,9 +4700,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -5399,13 +4797,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="2" t="n">
         <v>1</v>
       </c>
@@ -5440,13 +4838,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -5479,13 +4877,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -5546,13 +4944,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -5617,105 +5015,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="19">
-      <c r="B10" s="31" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="33" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="40" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>Итоги (Май)</t>
         </is>
       </c>
-      <c r="N10" s="15" t="n"/>
-      <c r="O10" s="15" t="n"/>
-      <c r="P10" s="15" t="n"/>
-      <c r="Q10" s="15" t="n"/>
-      <c r="R10" s="15" t="n"/>
-      <c r="S10" s="15" t="n"/>
-      <c r="T10" s="15" t="n"/>
-      <c r="U10" s="15" t="n"/>
-      <c r="V10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="19">
-      <c r="B11" s="27" t="inlineStr">
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="17" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="21">
+      <c r="B11" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="28" t="inlineStr">
+      <c r="M11" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="23" t="n"/>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="N11" s="25" t="n"/>
+      <c r="O11" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="23" t="n"/>
-      <c r="R11" s="21" t="inlineStr">
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+      <c r="R11" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="23" t="n"/>
-      <c r="U11" s="34" t="inlineStr">
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="25" t="n"/>
+      <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="23" t="n"/>
+      <c r="V11" s="25" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="29" t="n"/>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="24" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="26" t="n"/>
-      <c r="R12" s="24" t="n"/>
-      <c r="S12" s="25" t="n"/>
-      <c r="T12" s="26" t="n"/>
-      <c r="U12" s="24" t="n"/>
-      <c r="V12" s="26" t="n"/>
+      <c r="M12" s="31" t="n"/>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="26" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="26" t="n"/>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="28" t="n"/>
+      <c r="U12" s="26" t="n"/>
+      <c r="V12" s="28" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="19">
-      <c r="M13" s="24" t="n"/>
-      <c r="N13" s="26" t="n"/>
-      <c r="O13" s="32" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="M13" s="26" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-      <c r="R13" s="38" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="15" t="n"/>
-      <c r="T13" s="16" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -5727,97 +5125,97 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="19">
+    <row r="14" ht="18.75" customHeight="1" s="21">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="14">
+      <c r="O14" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="14">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="19">
+    <row r="15" ht="18" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="19">
+    <row r="16" ht="14.45" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="19">
+    <row r="17" ht="14.45" customHeight="1" s="21">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="14">
+      <c r="O17" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19"/>
-    <row r="19" ht="14.45" customHeight="1" s="19">
+    <row r="18" ht="14.45" customHeight="1" s="21"/>
+    <row r="19" ht="14.45" customHeight="1" s="21">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -5864,13 +5262,13 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5885,51 +5283,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Июнь</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
@@ -6081,9 +5479,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -6175,13 +5573,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -6215,13 +5613,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -6265,13 +5663,13 @@
       </c>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -6323,13 +5721,13 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
           <t>ё</t>
@@ -6391,105 +5789,105 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="19">
-      <c r="B10" s="31" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="33" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="40" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>Итоги (Июнь)</t>
         </is>
       </c>
-      <c r="N10" s="15" t="n"/>
-      <c r="O10" s="15" t="n"/>
-      <c r="P10" s="15" t="n"/>
-      <c r="Q10" s="15" t="n"/>
-      <c r="R10" s="15" t="n"/>
-      <c r="S10" s="15" t="n"/>
-      <c r="T10" s="15" t="n"/>
-      <c r="U10" s="15" t="n"/>
-      <c r="V10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="19">
-      <c r="B11" s="27" t="inlineStr">
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="17" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="21">
+      <c r="B11" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="28" t="inlineStr">
+      <c r="M11" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="23" t="n"/>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="N11" s="25" t="n"/>
+      <c r="O11" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="23" t="n"/>
-      <c r="R11" s="21" t="inlineStr">
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+      <c r="R11" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="23" t="n"/>
-      <c r="U11" s="34" t="inlineStr">
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="25" t="n"/>
+      <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="23" t="n"/>
+      <c r="V11" s="25" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="29" t="n"/>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="24" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="26" t="n"/>
-      <c r="R12" s="24" t="n"/>
-      <c r="S12" s="25" t="n"/>
-      <c r="T12" s="26" t="n"/>
-      <c r="U12" s="24" t="n"/>
-      <c r="V12" s="26" t="n"/>
+      <c r="M12" s="31" t="n"/>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="26" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="26" t="n"/>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="28" t="n"/>
+      <c r="U12" s="26" t="n"/>
+      <c r="V12" s="28" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="19">
-      <c r="M13" s="24" t="n"/>
-      <c r="N13" s="26" t="n"/>
-      <c r="O13" s="32" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="M13" s="26" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-      <c r="R13" s="38" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="15" t="n"/>
-      <c r="T13" s="16" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -6501,24 +5899,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="19">
+    <row r="14" ht="18.75" customHeight="1" s="21">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="14">
+      <c r="O14" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="14">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="inlineStr">
         <is>
@@ -6526,76 +5924,76 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="19">
+    <row r="15" ht="18" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="19">
+    <row r="16" ht="14.45" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="19">
+    <row r="17" ht="14.45" customHeight="1" s="21">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="14">
+      <c r="O17" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19"/>
-    <row r="19" ht="14.45" customHeight="1" s="19">
+    <row r="18" ht="14.45" customHeight="1" s="21"/>
+    <row r="19" ht="14.45" customHeight="1" s="21">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -6642,13 +6040,13 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6663,52 +6061,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Июль</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -6865,9 +6263,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -6962,13 +6360,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -7007,13 +6405,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="2" t="n">
@@ -7074,13 +6472,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -7129,105 +6527,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="31" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E9" s="33" t="inlineStr">
+      <c r="E9" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M9" s="40" t="inlineStr">
+      <c r="M9" s="41" t="inlineStr">
         <is>
           <t>Итоги (Июль)</t>
         </is>
       </c>
-      <c r="N9" s="15" t="n"/>
-      <c r="O9" s="15" t="n"/>
-      <c r="P9" s="15" t="n"/>
-      <c r="Q9" s="15" t="n"/>
-      <c r="R9" s="15" t="n"/>
-      <c r="S9" s="15" t="n"/>
-      <c r="T9" s="15" t="n"/>
-      <c r="U9" s="15" t="n"/>
-      <c r="V9" s="16" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="19">
-      <c r="B10" s="27" t="inlineStr">
+      <c r="N9" s="16" t="n"/>
+      <c r="O9" s="16" t="n"/>
+      <c r="P9" s="16" t="n"/>
+      <c r="Q9" s="16" t="n"/>
+      <c r="R9" s="16" t="n"/>
+      <c r="S9" s="16" t="n"/>
+      <c r="T9" s="16" t="n"/>
+      <c r="U9" s="16" t="n"/>
+      <c r="V9" s="17" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="21">
+      <c r="B10" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E10" s="20" t="inlineStr">
+      <c r="E10" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M10" s="28" t="inlineStr">
+      <c r="M10" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N10" s="23" t="n"/>
-      <c r="O10" s="21" t="inlineStr">
+      <c r="N10" s="25" t="n"/>
+      <c r="O10" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P10" s="22" t="n"/>
-      <c r="Q10" s="23" t="n"/>
-      <c r="R10" s="21" t="inlineStr">
+      <c r="P10" s="24" t="n"/>
+      <c r="Q10" s="25" t="n"/>
+      <c r="R10" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S10" s="22" t="n"/>
-      <c r="T10" s="23" t="n"/>
-      <c r="U10" s="34" t="inlineStr">
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="25" t="n"/>
+      <c r="U10" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V10" s="23" t="n"/>
+      <c r="V10" s="25" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M11" s="29" t="n"/>
-      <c r="N11" s="30" t="n"/>
-      <c r="O11" s="24" t="n"/>
-      <c r="P11" s="25" t="n"/>
-      <c r="Q11" s="26" t="n"/>
-      <c r="R11" s="24" t="n"/>
-      <c r="S11" s="25" t="n"/>
-      <c r="T11" s="26" t="n"/>
-      <c r="U11" s="24" t="n"/>
-      <c r="V11" s="26" t="n"/>
+      <c r="M11" s="31" t="n"/>
+      <c r="N11" s="32" t="n"/>
+      <c r="O11" s="26" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="28" t="n"/>
+      <c r="R11" s="26" t="n"/>
+      <c r="S11" s="27" t="n"/>
+      <c r="T11" s="28" t="n"/>
+      <c r="U11" s="26" t="n"/>
+      <c r="V11" s="28" t="n"/>
       <c r="AA11" s="10" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="M12" s="24" t="n"/>
-      <c r="N12" s="26" t="n"/>
-      <c r="O12" s="32" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="M12" s="26" t="n"/>
+      <c r="N12" s="28" t="n"/>
+      <c r="O12" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P12" s="15" t="n"/>
-      <c r="Q12" s="16" t="n"/>
-      <c r="R12" s="38" t="inlineStr">
+      <c r="P12" s="16" t="n"/>
+      <c r="Q12" s="17" t="n"/>
+      <c r="R12" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S12" s="15" t="n"/>
-      <c r="T12" s="16" t="n"/>
+      <c r="S12" s="16" t="n"/>
+      <c r="T12" s="17" t="n"/>
       <c r="U12" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -7239,79 +6637,79 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="19">
+    <row r="13" ht="18.75" customHeight="1" s="21">
       <c r="M13" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N13" s="4" t="n"/>
-      <c r="O13" s="14">
+      <c r="O13" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-      <c r="R13" s="14">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S13" s="15" t="n"/>
-      <c r="T13" s="16" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="7" t="n">
         <v>6</v>
       </c>
       <c r="V13" s="8" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1" s="19">
+    <row r="14" ht="18" customHeight="1" s="21">
       <c r="M14" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="14">
+      <c r="O14" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="14">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="12" t="n"/>
       <c r="V14" s="5" t="n"/>
     </row>
-    <row r="15" ht="14.45" customHeight="1" s="19">
+    <row r="15" ht="14.45" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="5" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.45" customHeight="1" s="19"/>
-    <row r="17" ht="14.45" customHeight="1" s="19">
+    <row r="16" ht="14.45" customHeight="1" s="21"/>
+    <row r="17" ht="14.45" customHeight="1" s="21">
       <c r="R17" s="10" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19"/>
-    <row r="19" ht="14.45" customHeight="1" s="19"/>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
+    <row r="18" ht="14.45" customHeight="1" s="21"/>
+    <row r="19" ht="14.45" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
     <row r="25">
       <c r="V25" t="inlineStr">
         <is>
@@ -7362,13 +6760,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7383,52 +6781,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -7585,9 +6983,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -7682,13 +7080,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -7727,13 +7125,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
@@ -7788,13 +7186,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -7829,13 +7227,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -7898,13 +7296,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Снежанна</t>
         </is>
       </c>
-      <c r="C9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -7943,105 +7341,105 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="19">
-      <c r="B11" s="31" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="21">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="40" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Август)</t>
         </is>
       </c>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="15" t="n"/>
-      <c r="R11" s="15" t="n"/>
-      <c r="S11" s="15" t="n"/>
-      <c r="T11" s="15" t="n"/>
-      <c r="U11" s="15" t="n"/>
-      <c r="V11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="B12" s="27" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="28" t="inlineStr">
+      <c r="M12" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="23" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
+      <c r="N12" s="25" t="n"/>
+      <c r="O12" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="21" t="inlineStr">
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="34" t="inlineStr">
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="26" t="n"/>
-      <c r="U13" s="24" t="n"/>
-      <c r="V13" s="26" t="n"/>
+      <c r="M13" s="31" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="26" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="26" t="n"/>
+      <c r="S13" s="27" t="n"/>
+      <c r="T13" s="28" t="n"/>
+      <c r="U13" s="26" t="n"/>
+      <c r="V13" s="28" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="19">
-      <c r="M14" s="24" t="n"/>
-      <c r="N14" s="26" t="n"/>
-      <c r="O14" s="32" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="21">
+      <c r="M14" s="26" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="38" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -8053,24 +7451,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
+    <row r="15" ht="18.75" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7" t="n">
         <v>4</v>
       </c>
@@ -8080,94 +7478,94 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" s="19">
+    <row r="16" ht="18" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.45" customHeight="1" s="19">
-      <c r="M17" s="41">
+    <row r="17" ht="14.45" customHeight="1" s="21">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19">
-      <c r="M18" s="41">
+    <row r="18" ht="14.45" customHeight="1" s="21">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="14">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="15">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="19">
-      <c r="M19" s="41">
+    <row r="19" ht="14.45" customHeight="1" s="21">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="14">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="15">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="15">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="23" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
@@ -8220,13 +7618,13 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8241,51 +7639,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Сентябрь</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -8437,9 +7835,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -8531,13 +7929,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -8569,13 +7967,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -8621,13 +8019,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -8701,13 +8099,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -8743,105 +8141,105 @@
       </c>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="19">
-      <c r="B10" s="31" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1" s="21">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="33" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="40" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>Итоги (Сентябрь)</t>
         </is>
       </c>
-      <c r="N10" s="15" t="n"/>
-      <c r="O10" s="15" t="n"/>
-      <c r="P10" s="15" t="n"/>
-      <c r="Q10" s="15" t="n"/>
-      <c r="R10" s="15" t="n"/>
-      <c r="S10" s="15" t="n"/>
-      <c r="T10" s="15" t="n"/>
-      <c r="U10" s="15" t="n"/>
-      <c r="V10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="19">
-      <c r="B11" s="27" t="inlineStr">
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="17" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="21">
+      <c r="B11" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="28" t="inlineStr">
+      <c r="M11" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="23" t="n"/>
-      <c r="O11" s="21" t="inlineStr">
+      <c r="N11" s="25" t="n"/>
+      <c r="O11" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="23" t="n"/>
-      <c r="R11" s="21" t="inlineStr">
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+      <c r="R11" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="23" t="n"/>
-      <c r="U11" s="34" t="inlineStr">
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="25" t="n"/>
+      <c r="U11" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="23" t="n"/>
+      <c r="V11" s="25" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="29" t="n"/>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="24" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="26" t="n"/>
-      <c r="R12" s="24" t="n"/>
-      <c r="S12" s="25" t="n"/>
-      <c r="T12" s="26" t="n"/>
-      <c r="U12" s="24" t="n"/>
-      <c r="V12" s="26" t="n"/>
+      <c r="M12" s="31" t="n"/>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="26" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="28" t="n"/>
+      <c r="R12" s="26" t="n"/>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="28" t="n"/>
+      <c r="U12" s="26" t="n"/>
+      <c r="V12" s="28" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="19">
-      <c r="M13" s="24" t="n"/>
-      <c r="N13" s="26" t="n"/>
-      <c r="O13" s="32" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="M13" s="26" t="n"/>
+      <c r="N13" s="28" t="n"/>
+      <c r="O13" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="15" t="n"/>
-      <c r="Q13" s="16" t="n"/>
-      <c r="R13" s="38" t="inlineStr">
+      <c r="P13" s="16" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="15" t="n"/>
-      <c r="T13" s="16" t="n"/>
+      <c r="S13" s="16" t="n"/>
+      <c r="T13" s="17" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -8853,97 +8251,97 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="19">
+    <row r="14" ht="18.75" customHeight="1" s="21">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="14">
+      <c r="O14" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="14">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
+    <row r="15" ht="18.75" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="19">
-      <c r="M16" s="41">
+    <row r="16" ht="18.75" customHeight="1" s="21">
+      <c r="M16" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N16" s="16" t="n"/>
-      <c r="O16" s="14">
+      <c r="N16" s="17" t="n"/>
+      <c r="O16" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="19">
-      <c r="M17" s="41">
+    <row r="17" ht="18" customHeight="1" s="21">
+      <c r="M17" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.45" customHeight="1" s="19"/>
-    <row r="19" ht="14.45" customHeight="1" s="19"/>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
-    <row r="24" ht="14.45" customHeight="1" s="19"/>
+    <row r="18" ht="14.45" customHeight="1" s="21"/>
+    <row r="19" ht="14.45" customHeight="1" s="21"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="23" ht="14.45" customHeight="1" s="21"/>
+    <row r="24" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="R15:T15"/>
@@ -8992,13 +8390,13 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="34"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9013,52 +8411,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Октябрь</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="15" t="n"/>
-      <c r="AH2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="16" t="n"/>
+      <c r="AH2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
@@ -9215,9 +8613,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -9312,13 +8710,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -9353,13 +8751,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -9394,13 +8792,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -9477,13 +8875,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -9520,13 +8918,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -9569,105 +8967,105 @@
       </c>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="19">
-      <c r="B11" s="31" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="21">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="40" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Октябрь)</t>
         </is>
       </c>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="15" t="n"/>
-      <c r="R11" s="15" t="n"/>
-      <c r="S11" s="15" t="n"/>
-      <c r="T11" s="15" t="n"/>
-      <c r="U11" s="15" t="n"/>
-      <c r="V11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="B12" s="27" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="28" t="inlineStr">
+      <c r="M12" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="23" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
+      <c r="N12" s="25" t="n"/>
+      <c r="O12" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="21" t="inlineStr">
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="34" t="inlineStr">
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="26" t="n"/>
-      <c r="U13" s="24" t="n"/>
-      <c r="V13" s="26" t="n"/>
+      <c r="M13" s="31" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="26" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="26" t="n"/>
+      <c r="S13" s="27" t="n"/>
+      <c r="T13" s="28" t="n"/>
+      <c r="U13" s="26" t="n"/>
+      <c r="V13" s="28" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="19">
-      <c r="M14" s="24" t="n"/>
-      <c r="N14" s="26" t="n"/>
-      <c r="O14" s="32" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="21">
+      <c r="M14" s="26" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="38" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -9679,117 +9077,117 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
+    <row r="15" ht="18.75" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="19">
+    <row r="16" ht="18.75" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="19">
-      <c r="M17" s="41">
+    <row r="17" ht="18.75" customHeight="1" s="21">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="19">
-      <c r="M18" s="41">
+    <row r="18" ht="18" customHeight="1" s="21">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="14">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="15">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="19">
-      <c r="M19" s="41">
+    <row r="19" ht="14.45" customHeight="1" s="21">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="14">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="15">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="15">
         <f>SUM(S9:AH9)</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
-    <row r="24" ht="14.45" customHeight="1" s="19"/>
-    <row r="25" ht="14.45" customHeight="1" s="19"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="23" ht="14.45" customHeight="1" s="21"/>
+    <row r="24" ht="14.45" customHeight="1" s="21"/>
+    <row r="25" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
@@ -9842,13 +9240,13 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.7109375" customWidth="1" style="19" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="19" min="3" max="3"/>
-    <col width="5.7109375" customWidth="1" style="19" min="4" max="6"/>
-    <col width="5.42578125" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.7109375" customWidth="1" style="19" min="8" max="33"/>
+    <col width="4.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="5.7109375" customWidth="1" style="21" min="4" max="6"/>
+    <col width="5.42578125" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.7109375" customWidth="1" style="21" min="8" max="33"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9863,51 +9261,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="19">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1" s="21">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Ноябрь</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="15" t="n"/>
-      <c r="Q2" s="15" t="n"/>
-      <c r="R2" s="15" t="n"/>
-      <c r="S2" s="15" t="n"/>
-      <c r="T2" s="15" t="n"/>
-      <c r="U2" s="15" t="n"/>
-      <c r="V2" s="15" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="15" t="n"/>
-      <c r="Z2" s="15" t="n"/>
-      <c r="AA2" s="15" t="n"/>
-      <c r="AB2" s="15" t="n"/>
-      <c r="AC2" s="15" t="n"/>
-      <c r="AD2" s="15" t="n"/>
-      <c r="AE2" s="15" t="n"/>
-      <c r="AF2" s="15" t="n"/>
-      <c r="AG2" s="16" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="19">
-      <c r="B3" s="35" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="16" t="n"/>
+      <c r="T2" s="16" t="n"/>
+      <c r="U2" s="16" t="n"/>
+      <c r="V2" s="16" t="n"/>
+      <c r="W2" s="16" t="n"/>
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="16" t="n"/>
+      <c r="AB2" s="16" t="n"/>
+      <c r="AC2" s="16" t="n"/>
+      <c r="AD2" s="16" t="n"/>
+      <c r="AE2" s="16" t="n"/>
+      <c r="AF2" s="16" t="n"/>
+      <c r="AG2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="21">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
+      <c r="C3" s="32" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -10059,9 +9457,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="26" t="n"/>
+    <row r="4" ht="18.75" customHeight="1" s="21">
+      <c r="B4" s="26" t="n"/>
+      <c r="C4" s="28" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -10153,13 +9551,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="19">
-      <c r="B5" s="17" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1" s="21">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="16" t="n"/>
+      <c r="C5" s="17" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -10193,13 +9591,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="19">
-      <c r="B6" s="17" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1" s="21">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="16" t="n"/>
+      <c r="C6" s="17" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="6" t="n">
@@ -10235,13 +9633,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="19">
-      <c r="B7" s="17" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="21">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n"/>
+      <c r="C7" s="17" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -10305,13 +9703,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="19">
-      <c r="B8" s="17" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1" s="21">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -10343,13 +9741,13 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="19">
-      <c r="B9" s="17" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="21">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="16" t="n"/>
+      <c r="C9" s="17" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -10403,105 +9801,105 @@
       </c>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="19">
-      <c r="B11" s="31" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="21">
+      <c r="B11" s="33" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="40" t="inlineStr">
+      <c r="M11" s="41" t="inlineStr">
         <is>
           <t>Итоги (Ноябрь)</t>
         </is>
       </c>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
-      <c r="Q11" s="15" t="n"/>
-      <c r="R11" s="15" t="n"/>
-      <c r="S11" s="15" t="n"/>
-      <c r="T11" s="15" t="n"/>
-      <c r="U11" s="15" t="n"/>
-      <c r="V11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="19">
-      <c r="B12" s="27" t="inlineStr">
+      <c r="N11" s="16" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="16" t="n"/>
+      <c r="Q11" s="16" t="n"/>
+      <c r="R11" s="16" t="n"/>
+      <c r="S11" s="16" t="n"/>
+      <c r="T11" s="16" t="n"/>
+      <c r="U11" s="16" t="n"/>
+      <c r="V11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="E12" s="22" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="28" t="inlineStr">
+      <c r="M12" s="30" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="23" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
+      <c r="N12" s="25" t="n"/>
+      <c r="O12" s="23" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="21" t="inlineStr">
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="23" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
-      <c r="U12" s="34" t="inlineStr">
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
+      <c r="U12" s="36" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="23" t="n"/>
+      <c r="V12" s="25" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="26" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="25" t="n"/>
-      <c r="T13" s="26" t="n"/>
-      <c r="U13" s="24" t="n"/>
-      <c r="V13" s="26" t="n"/>
+      <c r="M13" s="31" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="26" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="28" t="n"/>
+      <c r="R13" s="26" t="n"/>
+      <c r="S13" s="27" t="n"/>
+      <c r="T13" s="28" t="n"/>
+      <c r="U13" s="26" t="n"/>
+      <c r="V13" s="28" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="19">
-      <c r="M14" s="24" t="n"/>
-      <c r="N14" s="26" t="n"/>
-      <c r="O14" s="32" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="21">
+      <c r="M14" s="26" t="n"/>
+      <c r="N14" s="28" t="n"/>
+      <c r="O14" s="34" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="15" t="n"/>
-      <c r="Q14" s="16" t="n"/>
-      <c r="R14" s="38" t="inlineStr">
+      <c r="P14" s="16" t="n"/>
+      <c r="Q14" s="17" t="n"/>
+      <c r="R14" s="39" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="15" t="n"/>
-      <c r="T14" s="16" t="n"/>
+      <c r="S14" s="16" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -10513,117 +9911,117 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="19">
+    <row r="15" ht="18.75" customHeight="1" s="21">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="14">
+      <c r="O15" s="15">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="n"/>
-      <c r="Q15" s="16" t="n"/>
-      <c r="R15" s="14">
+      <c r="P15" s="16" t="n"/>
+      <c r="Q15" s="17" t="n"/>
+      <c r="R15" s="15">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="n"/>
-      <c r="T15" s="16" t="n"/>
+      <c r="S15" s="16" t="n"/>
+      <c r="T15" s="17" t="n"/>
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="19">
+    <row r="16" ht="18.75" customHeight="1" s="21">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="14">
+      <c r="O16" s="15">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="n"/>
-      <c r="Q16" s="16" t="n"/>
-      <c r="R16" s="14">
+      <c r="P16" s="16" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+      <c r="R16" s="15">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="n"/>
-      <c r="T16" s="16" t="n"/>
+      <c r="S16" s="16" t="n"/>
+      <c r="T16" s="17" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="19">
-      <c r="M17" s="41">
+    <row r="17" ht="18.75" customHeight="1" s="21">
+      <c r="M17" s="42">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="n"/>
-      <c r="O17" s="14">
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="15">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="n"/>
-      <c r="Q17" s="16" t="n"/>
-      <c r="R17" s="14">
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="17" t="n"/>
+      <c r="R17" s="15">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="n"/>
-      <c r="T17" s="16" t="n"/>
+      <c r="S17" s="16" t="n"/>
+      <c r="T17" s="17" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="19">
-      <c r="M18" s="41">
+    <row r="18" ht="18" customHeight="1" s="21">
+      <c r="M18" s="42">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="n"/>
-      <c r="O18" s="14">
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="15">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="n"/>
-      <c r="Q18" s="16" t="n"/>
-      <c r="R18" s="14">
+      <c r="P18" s="16" t="n"/>
+      <c r="Q18" s="17" t="n"/>
+      <c r="R18" s="15">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="n"/>
-      <c r="T18" s="16" t="n"/>
+      <c r="S18" s="16" t="n"/>
+      <c r="T18" s="17" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.45" customHeight="1" s="19">
-      <c r="M19" s="41">
+    <row r="19" ht="14.45" customHeight="1" s="21">
+      <c r="M19" s="42">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="n"/>
-      <c r="O19" s="14">
+      <c r="N19" s="17" t="n"/>
+      <c r="O19" s="15">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="n"/>
-      <c r="Q19" s="16" t="n"/>
-      <c r="R19" s="14">
+      <c r="P19" s="16" t="n"/>
+      <c r="Q19" s="17" t="n"/>
+      <c r="R19" s="15">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="n"/>
-      <c r="T19" s="16" t="n"/>
+      <c r="S19" s="16" t="n"/>
+      <c r="T19" s="17" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.45" customHeight="1" s="19"/>
-    <row r="21" ht="14.45" customHeight="1" s="19"/>
-    <row r="22" ht="14.45" customHeight="1" s="19"/>
-    <row r="23" ht="14.45" customHeight="1" s="19"/>
-    <row r="24" ht="14.45" customHeight="1" s="19"/>
-    <row r="25" ht="14.45" customHeight="1" s="19"/>
+    <row r="20" ht="14.45" customHeight="1" s="21"/>
+    <row r="21" ht="14.45" customHeight="1" s="21"/>
+    <row r="22" ht="14.45" customHeight="1" s="21"/>
+    <row r="23" ht="14.45" customHeight="1" s="21"/>
+    <row r="24" ht="14.45" customHeight="1" s="21"/>
+    <row r="25" ht="14.45" customHeight="1" s="21"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>

--- a/График_работы2.xlsx
+++ b/График_работы2.xlsx
@@ -2903,7 +2903,9 @@
       <c r="V5" s="45" t="n"/>
       <c r="W5" s="45" t="n"/>
       <c r="X5" s="45" t="n"/>
-      <c r="Y5" s="45" t="n"/>
+      <c r="Y5" s="48" t="n">
+        <v>1</v>
+      </c>
       <c r="Z5" s="46" t="n">
         <v>7</v>
       </c>

--- a/График_работы2.xlsx
+++ b/График_работы2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="9" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Март" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Апрель" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Май" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Июнь" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Июль" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Август" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Сентябрь" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Октябрь" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ноябрь" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Декабрь" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Январь" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Март" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Апрель" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Май" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Июнь" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Июль" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Август" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сентябрь" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Октябрь" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ноябрь" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Декабрь" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Январь" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -2903,9 +2903,7 @@
       <c r="V5" s="45" t="n"/>
       <c r="W5" s="45" t="n"/>
       <c r="X5" s="45" t="n"/>
-      <c r="Y5" s="48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="45" t="n"/>
       <c r="Z5" s="46" t="n">
         <v>7</v>
       </c>
